--- a/Consumer/Prada.xlsx
+++ b/Consumer/Prada.xlsx
@@ -1,34 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8B2FE3-8DB8-7F4D-AB7A-62419190381E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE975AB-BE32-E849-B427-FBA16782F74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106:$B$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19:$B$19</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$3:$B$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$C$106:$O$106</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$C$19:$O$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$C$3:$O$3</definedName>
-    <definedName name="_xlchart.v2.10" hidden="1">'Sheet 1'!$C$19:$O$19</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">'Sheet 1'!$C$3:$O$3</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">'Sheet 1'!$A$106:$B$106</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">'Sheet 1'!$A$19:$B$19</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">'Sheet 1'!$A$3:$B$3</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">'Sheet 1'!$C$106:$O$106</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -971,18 +957,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -991,12 +965,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1023,12 +991,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1046,6 +1008,30 @@
     <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2327,11 +2313,9 @@
     <v>Powered by Refinitiv</v>
     <v>63.65</v>
     <v>31.5</v>
-    <v>0.71450000000000002</v>
-    <v>-0.25</v>
-    <v>-4.163E-3</v>
-    <v>-0.5</v>
-    <v>-8.3610000000000004E-3</v>
+    <v>0.71550000000000002</v>
+    <v>1.45</v>
+    <v>2.5108000000000002E-2</v>
     <v>HKD</v>
     <v>Prada SpA is an Italy-based company engaged in fashion industry. The Company is a parent of the Prada Group. The Company, along with its subsidiaries, is engaged in the design, production and distribution of leather goods, handbags, clothing, eyewear, fragrances, footwear and accessories. Prada SpA manufactures jackets, trousers, skirts, dresses, sweaters, blouses, as well as perfumes and watches, among others. The Company trades its products through several brands, such as Prada, Miu Miu, The Church and The Car Shoe. Prada SpA operates in approximately 70 countries through directly operated stores, franchise operated stores, a network of selected multi-brand stores and department stores. Prada Spa operates through a numerous subsidiaries, including Artisans Shoes Srl, Angelo Marchesi Srl, Prada Far East BV, Tannerie Megisserie Hervy SAS and Prada SA, among others.</v>
     <v>13768</v>
@@ -2339,25 +2323,24 @@
     <v>XHKG</v>
     <v>XHKG</v>
     <v>via Antonio Fogazzaro, 28, MILANO, MILANO, 20135 IT</v>
-    <v>60.55</v>
+    <v>59.5</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45037.339108796295</v>
+    <v>45068.296073471873</v>
     <v>0</v>
-    <v>59.3</v>
-    <v>153017700000</v>
+    <v>56.25</v>
+    <v>147772100000</v>
     <v>Prada SpA</v>
     <v>Prada SpA</v>
-    <v>60</v>
-    <v>39.36</v>
-    <v>60.05</v>
-    <v>59.8</v>
-    <v>59.3</v>
+    <v>57.9</v>
+    <v>38.96</v>
+    <v>57.75</v>
+    <v>59.2</v>
     <v>2558824000</v>
     <v>1913</v>
     <v>Prada SpA (XHKG:1913)</v>
-    <v>230320</v>
-    <v>1584220</v>
+    <v>283500</v>
+    <v>755440</v>
   </rv>
   <rv s="2">
     <v>1</v>
@@ -2388,8 +2371,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2410,7 +2391,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2426,7 +2406,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="44">
+    <a count="41">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2437,16 +2417,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2510,18 +2487,12 @@
       <v>7</v>
       <v>8</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2565,18 +2536,12 @@
     <k n="Last trade time" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
     <k n="Change" t="s"/>
     <k n="Change (%)" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2932,10 +2897,10 @@
   <dimension ref="A1:X118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M105" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V139" sqref="V139"/>
+      <selection pane="bottomRight" activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3930,15 +3895,15 @@
       </c>
       <c r="V16" s="30">
         <f>W101/O3</f>
-        <v>36.426940057714546</v>
+        <v>35.178188071723731</v>
       </c>
       <c r="W16" s="30">
         <f>W101/O28</f>
-        <v>328.93379737012378</v>
+        <v>317.65761737601383</v>
       </c>
       <c r="X16" s="31">
         <f>W101/O106</f>
-        <v>173.44973146739636</v>
+        <v>167.50370096644534</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -7143,10 +7108,10 @@
       <c r="O83" s="1">
         <v>-121826000</v>
       </c>
-      <c r="V83" s="33" t="s">
+      <c r="V83" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="W83" s="34"/>
+      <c r="W83" s="62"/>
     </row>
     <row r="84" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -7194,10 +7159,10 @@
       <c r="O84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="V84" s="35" t="s">
+      <c r="V84" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="W84" s="36"/>
+      <c r="W84" s="64"/>
     </row>
     <row r="85" spans="1:23" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -7407,10 +7372,10 @@
       <c r="O88" s="1">
         <v>-241495000</v>
       </c>
-      <c r="V88" s="37" t="s">
+      <c r="V88" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="W88" s="38">
+      <c r="W88" s="34">
         <f>W85/(W86+W87)</f>
         <v>1.7658251763351087E-2</v>
       </c>
@@ -7583,10 +7548,10 @@
       <c r="O91" s="1">
         <v>-19549000</v>
       </c>
-      <c r="V91" s="37" t="s">
+      <c r="V91" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="W91" s="38">
+      <c r="W91" s="34">
         <f>W89/W90</f>
         <v>0.34012447695066633</v>
       </c>
@@ -7637,10 +7602,10 @@
       <c r="O92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="V92" s="39" t="s">
+      <c r="V92" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="W92" s="40">
+      <c r="W92" s="36">
         <f>W88*(1-W91)</f>
         <v>1.1652248118478117E-2</v>
       </c>
@@ -7691,10 +7656,10 @@
       <c r="O93" s="1">
         <v>13473000</v>
       </c>
-      <c r="V93" s="41" t="s">
+      <c r="V93" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="W93" s="42"/>
+      <c r="W93" s="66"/>
     </row>
     <row r="94" spans="1:23" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -7745,7 +7710,7 @@
       <c r="V94" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="W94" s="43">
+      <c r="W94" s="37">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -7798,9 +7763,9 @@
       <c r="V95" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="W95" s="44" cm="1">
+      <c r="W95" s="38" cm="1">
         <f t="array" ref="W95">_FV(A1,"Beta")</f>
-        <v>0.71450000000000002</v>
+        <v>0.71550000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:23" ht="20" x14ac:dyDescent="0.25">
@@ -7852,7 +7817,7 @@
       <c r="V96" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="W96" s="43">
+      <c r="W96" s="37">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -7902,12 +7867,12 @@
       <c r="O97" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="V97" s="39" t="s">
+      <c r="V97" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="W97" s="40">
+      <c r="W97" s="36">
         <f>(W94)+((W95)*(W96-W94))</f>
-        <v>7.1709225000000001E-2</v>
+        <v>7.1752275000000004E-2</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -7956,10 +7921,10 @@
       <c r="O98" s="1">
         <v>-179118000</v>
       </c>
-      <c r="V98" s="41" t="s">
+      <c r="V98" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="W98" s="42"/>
+      <c r="W98" s="66"/>
     </row>
     <row r="99" spans="1:23" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -8061,12 +8026,12 @@
       <c r="O100" s="10">
         <v>-787378000</v>
       </c>
-      <c r="V100" s="37" t="s">
+      <c r="V100" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="W100" s="38">
+      <c r="W100" s="34">
         <f>W99/W103</f>
-        <v>1.7134868722521016E-2</v>
+        <v>1.773233494116196E-2</v>
       </c>
     </row>
     <row r="101" spans="1:23" ht="20" x14ac:dyDescent="0.25">
@@ -8118,9 +8083,9 @@
       <c r="V101" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="W101" s="45" cm="1">
+      <c r="W101" s="39" cm="1">
         <f t="array" ref="W101">_FV(A1,"Market cap",TRUE)</f>
-        <v>153017700000</v>
+        <v>147772100000</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="20" x14ac:dyDescent="0.25">
@@ -8169,12 +8134,12 @@
       <c r="O102" s="10">
         <v>109836000</v>
       </c>
-      <c r="V102" s="37" t="s">
+      <c r="V102" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="W102" s="38">
+      <c r="W102" s="34">
         <f>W101/W103</f>
-        <v>0.98286513127747899</v>
+        <v>0.982267665058838</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="20" x14ac:dyDescent="0.25">
@@ -8223,12 +8188,12 @@
       <c r="O103" s="1">
         <v>981786000</v>
       </c>
-      <c r="V103" s="39" t="s">
+      <c r="V103" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="W103" s="46">
+      <c r="W103" s="40">
         <f>W99+W101</f>
-        <v>155685348000</v>
+        <v>150439748000</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -8277,10 +8242,10 @@
       <c r="O104" s="11">
         <v>1091622000</v>
       </c>
-      <c r="V104" s="35" t="s">
+      <c r="V104" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="W104" s="36"/>
+      <c r="W104" s="64"/>
     </row>
     <row r="105" spans="1:23" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -8350,7 +8315,7 @@
       </c>
       <c r="W105" s="26">
         <f>(W100*W92)+(W102*W97)</f>
-        <v>7.0680156585263637E-2</v>
+        <v>7.0686561193364014E-2</v>
       </c>
     </row>
     <row r="106" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -8399,33 +8364,33 @@
       <c r="O106" s="1">
         <v>882202000</v>
       </c>
-      <c r="P106" s="47">
+      <c r="P106" s="41">
         <f>O106*(1+$W$106)</f>
         <v>959119283.11465728</v>
       </c>
-      <c r="Q106" s="47">
+      <c r="Q106" s="41">
         <f t="shared" ref="Q106:T106" si="9">P106*(1+$W$106)</f>
         <v>1042742817.6793683</v>
       </c>
-      <c r="R106" s="47">
+      <c r="R106" s="41">
         <f t="shared" si="9"/>
         <v>1133657307.2443652</v>
       </c>
-      <c r="S106" s="47">
+      <c r="S106" s="41">
         <f t="shared" si="9"/>
         <v>1232498434.397007</v>
       </c>
-      <c r="T106" s="47">
+      <c r="T106" s="41">
         <f t="shared" si="9"/>
         <v>1339957305.5136971</v>
       </c>
-      <c r="U106" s="48" t="s">
+      <c r="U106" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="V106" s="49" t="s">
+      <c r="V106" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="W106" s="50">
+      <c r="W106" s="44">
         <f>(SUM(P4:T4)/5)</f>
         <v>8.7187835795721605E-2</v>
       </c>
@@ -8446,151 +8411,151 @@
       <c r="M107" s="13"/>
       <c r="N107" s="13"/>
       <c r="O107" s="13"/>
-      <c r="P107" s="48"/>
-      <c r="Q107" s="48"/>
-      <c r="R107" s="48"/>
-      <c r="S107" s="48"/>
-      <c r="T107" s="51">
+      <c r="P107" s="42"/>
+      <c r="Q107" s="42"/>
+      <c r="R107" s="42"/>
+      <c r="S107" s="42"/>
+      <c r="T107" s="45">
         <f>T106*(1+W107)/(W108-W107)</f>
-        <v>30066802323.410049</v>
-      </c>
-      <c r="U107" s="52" t="s">
+        <v>30062587384.034378</v>
+      </c>
+      <c r="U107" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="V107" s="53" t="s">
+      <c r="V107" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="W107" s="54">
+      <c r="W107" s="48">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="P108" s="51">
+      <c r="P108" s="45">
         <f t="shared" ref="P108:R108" si="10">P107+P106</f>
         <v>959119283.11465728</v>
       </c>
-      <c r="Q108" s="51">
+      <c r="Q108" s="45">
         <f t="shared" si="10"/>
         <v>1042742817.6793683</v>
       </c>
-      <c r="R108" s="51">
+      <c r="R108" s="45">
         <f t="shared" si="10"/>
         <v>1133657307.2443652</v>
       </c>
-      <c r="S108" s="51">
+      <c r="S108" s="45">
         <f>S107+S106</f>
         <v>1232498434.397007</v>
       </c>
-      <c r="T108" s="51">
+      <c r="T108" s="45">
         <f>T107+T106</f>
-        <v>31406759628.923748</v>
-      </c>
-      <c r="U108" s="52" t="s">
+        <v>31402544689.548077</v>
+      </c>
+      <c r="U108" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="V108" s="55" t="s">
+      <c r="V108" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="W108" s="56">
+      <c r="W108" s="50">
         <f>W105</f>
-        <v>7.0680156585263637E-2</v>
+        <v>7.0686561193364014E-2</v>
       </c>
     </row>
     <row r="109" spans="1:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="P109" s="57" t="s">
+      <c r="P109" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="Q109" s="58"/>
+      <c r="Q109" s="60"/>
     </row>
     <row r="110" spans="1:23" ht="20" x14ac:dyDescent="0.25">
-      <c r="P110" s="59" t="s">
+      <c r="P110" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="Q110" s="45">
+      <c r="Q110" s="39">
         <f>NPV(W108,P108,Q108,R108,S108,T108)</f>
-        <v>25988489354.290245</v>
+        <v>25984770922.725662</v>
       </c>
     </row>
     <row r="111" spans="1:23" ht="20" x14ac:dyDescent="0.25">
-      <c r="P111" s="59" t="s">
+      <c r="P111" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="Q111" s="45">
+      <c r="Q111" s="39">
         <f>O40</f>
         <v>1091622000</v>
       </c>
     </row>
     <row r="112" spans="1:23" ht="20" x14ac:dyDescent="0.25">
-      <c r="P112" s="59" t="s">
+      <c r="P112" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="Q112" s="45">
+      <c r="Q112" s="39">
         <f>W99</f>
         <v>2667648000</v>
       </c>
     </row>
     <row r="113" spans="16:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="P113" s="59" t="s">
+      <c r="P113" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="Q113" s="45">
+      <c r="Q113" s="39">
         <f>Q110+Q111-Q112</f>
-        <v>24412463354.290245</v>
+        <v>24408744922.725662</v>
       </c>
     </row>
     <row r="114" spans="16:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="P114" s="59" t="s">
+      <c r="P114" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="Q114" s="60">
+      <c r="Q114" s="52">
         <f>O34*(1+(5*U16))</f>
         <v>2558824000</v>
       </c>
     </row>
     <row r="115" spans="16:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="P115" s="61" t="s">
+      <c r="P115" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="Q115" s="62">
+      <c r="Q115" s="54">
         <f>Q113/Q114</f>
-        <v>9.5405011654925254</v>
+        <v>9.5390479856081001</v>
       </c>
     </row>
     <row r="116" spans="16:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="P116" s="59" t="s">
+      <c r="P116" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="Q116" s="63" cm="1">
+      <c r="Q116" s="55" cm="1">
         <f t="array" ref="Q116">_FV(A1,"Price")</f>
-        <v>59.8</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="117" spans="16:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="P117" s="64" t="s">
+      <c r="P117" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="Q117" s="65">
+      <c r="Q117" s="57">
         <f>Q115/Q116-1</f>
-        <v>-0.84045984673089424</v>
+        <v>-0.83886743267553887</v>
       </c>
     </row>
     <row r="118" spans="16:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="P118" s="64" t="s">
+      <c r="P118" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="Q118" s="66" t="str">
+      <c r="Q118" s="58" t="str">
         <f>IF(Q115&gt;Q116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="P109:Q109"/>
     <mergeCell ref="V83:W83"/>
     <mergeCell ref="V84:W84"/>
     <mergeCell ref="V93:W93"/>
     <mergeCell ref="V98:W98"/>
     <mergeCell ref="V104:W104"/>
-    <mergeCell ref="P109:Q109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/1913.HK" display="ROIC.AI | 1913.HK" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Consumer/Prada.xlsx
+++ b/Consumer/Prada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE975AB-BE32-E849-B427-FBA16782F74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7E6447-4B41-0C42-A145-D59520DAB5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2313,9 +2313,11 @@
     <v>Powered by Refinitiv</v>
     <v>63.65</v>
     <v>31.5</v>
-    <v>0.71550000000000002</v>
-    <v>1.45</v>
-    <v>2.5108000000000002E-2</v>
+    <v>0.69240000000000002</v>
+    <v>-0.75</v>
+    <v>-1.4312999999999999E-2</v>
+    <v>-0.2</v>
+    <v>-3.872E-3</v>
     <v>HKD</v>
     <v>Prada SpA is an Italy-based company engaged in fashion industry. The Company is a parent of the Prada Group. The Company, along with its subsidiaries, is engaged in the design, production and distribution of leather goods, handbags, clothing, eyewear, fragrances, footwear and accessories. Prada SpA manufactures jackets, trousers, skirts, dresses, sweaters, blouses, as well as perfumes and watches, among others. The Company trades its products through several brands, such as Prada, Miu Miu, The Church and The Car Shoe. Prada SpA operates in approximately 70 countries through directly operated stores, franchise operated stores, a network of selected multi-brand stores and department stores. Prada Spa operates through a numerous subsidiaries, including Artisans Shoes Srl, Angelo Marchesi Srl, Prada Far East BV, Tannerie Megisserie Hervy SAS and Prada SA, among others.</v>
     <v>13768</v>
@@ -2323,24 +2325,25 @@
     <v>XHKG</v>
     <v>XHKG</v>
     <v>via Antonio Fogazzaro, 28, MILANO, MILANO, 20135 IT</v>
-    <v>59.5</v>
+    <v>52.95</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45068.296073471873</v>
+    <v>45100.339461145311</v>
     <v>0</v>
-    <v>56.25</v>
-    <v>147772100000</v>
+    <v>51.45</v>
+    <v>134951900000</v>
     <v>Prada SpA</v>
     <v>Prada SpA</v>
-    <v>57.9</v>
-    <v>38.96</v>
-    <v>57.75</v>
-    <v>59.2</v>
+    <v>52.35</v>
+    <v>33.99</v>
+    <v>52.4</v>
+    <v>51.65</v>
+    <v>51.45</v>
     <v>2558824000</v>
     <v>1913</v>
     <v>Prada SpA (XHKG:1913)</v>
-    <v>283500</v>
-    <v>755440</v>
+    <v>828339</v>
+    <v>562350</v>
   </rv>
   <rv s="2">
     <v>1</v>
@@ -2371,6 +2374,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2391,6 +2396,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2406,7 +2412,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="41">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2417,13 +2423,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2487,12 +2496,18 @@
       <v>7</v>
       <v>8</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2536,12 +2551,18 @@
     <k n="Last trade time" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
     <k n="Change" t="s"/>
     <k n="Change (%)" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2897,10 +2918,10 @@
   <dimension ref="A1:X118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S18" sqref="S18"/>
+      <selection pane="bottomRight" activeCell="O113" sqref="O113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3895,15 +3916,15 @@
       </c>
       <c r="V16" s="30">
         <f>W101/O3</f>
-        <v>35.178188071723731</v>
+        <v>32.126249263808617</v>
       </c>
       <c r="W16" s="30">
         <f>W101/O28</f>
-        <v>317.65761737601383</v>
+        <v>290.09873321395634</v>
       </c>
       <c r="X16" s="31">
         <f>W101/O106</f>
-        <v>167.50370096644534</v>
+        <v>152.97165501778505</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -7765,7 +7786,7 @@
       </c>
       <c r="W95" s="38" cm="1">
         <f t="array" ref="W95">_FV(A1,"Beta")</f>
-        <v>0.71550000000000002</v>
+        <v>0.69240000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:23" ht="20" x14ac:dyDescent="0.25">
@@ -7872,7 +7893,7 @@
       </c>
       <c r="W97" s="36">
         <f>(W94)+((W95)*(W96-W94))</f>
-        <v>7.1752275000000004E-2</v>
+        <v>7.0757819999999999E-2</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -8031,7 +8052,7 @@
       </c>
       <c r="W100" s="34">
         <f>W99/W103</f>
-        <v>1.773233494116196E-2</v>
+        <v>1.9384222944839203E-2</v>
       </c>
     </row>
     <row r="101" spans="1:23" ht="20" x14ac:dyDescent="0.25">
@@ -8085,7 +8106,7 @@
       </c>
       <c r="W101" s="39" cm="1">
         <f t="array" ref="W101">_FV(A1,"Market cap",TRUE)</f>
-        <v>147772100000</v>
+        <v>134951900000</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="20" x14ac:dyDescent="0.25">
@@ -8139,7 +8160,7 @@
       </c>
       <c r="W102" s="34">
         <f>W101/W103</f>
-        <v>0.982267665058838</v>
+        <v>0.98061577705516079</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="20" x14ac:dyDescent="0.25">
@@ -8193,7 +8214,7 @@
       </c>
       <c r="W103" s="40">
         <f>W99+W101</f>
-        <v>150439748000</v>
+        <v>137619548000</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -8315,7 +8336,7 @@
       </c>
       <c r="W105" s="26">
         <f>(W100*W92)+(W102*W97)</f>
-        <v>7.0686561193364014E-2</v>
+        <v>6.9612104417366358E-2</v>
       </c>
     </row>
     <row r="106" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -8417,7 +8438,7 @@
       <c r="S107" s="42"/>
       <c r="T107" s="45">
         <f>T106*(1+W107)/(W108-W107)</f>
-        <v>30062587384.034378</v>
+        <v>30786627443.131512</v>
       </c>
       <c r="U107" s="46" t="s">
         <v>148</v>
@@ -8448,7 +8469,7 @@
       </c>
       <c r="T108" s="45">
         <f>T107+T106</f>
-        <v>31402544689.548077</v>
+        <v>32126584748.64521</v>
       </c>
       <c r="U108" s="46" t="s">
         <v>144</v>
@@ -8458,7 +8479,7 @@
       </c>
       <c r="W108" s="50">
         <f>W105</f>
-        <v>7.0686561193364014E-2</v>
+        <v>6.9612104417366358E-2</v>
       </c>
     </row>
     <row r="109" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -8473,7 +8494,7 @@
       </c>
       <c r="Q110" s="39">
         <f>NPV(W108,P108,Q108,R108,S108,T108)</f>
-        <v>25984770922.725662</v>
+        <v>26623547056.477718</v>
       </c>
     </row>
     <row r="111" spans="1:23" ht="20" x14ac:dyDescent="0.25">
@@ -8500,7 +8521,7 @@
       </c>
       <c r="Q113" s="39">
         <f>Q110+Q111-Q112</f>
-        <v>24408744922.725662</v>
+        <v>25047521056.477718</v>
       </c>
     </row>
     <row r="114" spans="16:17" ht="20" x14ac:dyDescent="0.25">
@@ -8518,7 +8539,7 @@
       </c>
       <c r="Q115" s="54">
         <f>Q113/Q114</f>
-        <v>9.5390479856081001</v>
+        <v>9.7886845896699892</v>
       </c>
     </row>
     <row r="116" spans="16:17" ht="20" x14ac:dyDescent="0.25">
@@ -8527,7 +8548,7 @@
       </c>
       <c r="Q116" s="55" cm="1">
         <f t="array" ref="Q116">_FV(A1,"Price")</f>
-        <v>59.2</v>
+        <v>51.65</v>
       </c>
     </row>
     <row r="117" spans="16:17" ht="20" x14ac:dyDescent="0.25">
@@ -8536,7 +8557,7 @@
       </c>
       <c r="Q117" s="57">
         <f>Q115/Q116-1</f>
-        <v>-0.83886743267553887</v>
+        <v>-0.81048045324937101</v>
       </c>
     </row>
     <row r="118" spans="16:17" ht="20" x14ac:dyDescent="0.25">
